--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -7,13 +7,17 @@
   </bookViews>
   <sheets>
     <sheet name="Serienbriefparameter" r:id="rId3" sheetId="1"/>
-    <sheet name="Diener" r:id="rId4" sheetId="2"/>
+    <sheet name="Voß" r:id="rId4" sheetId="2"/>
+    <sheet name="Mischke" r:id="rId5" sheetId="3"/>
+    <sheet name="Hessel,Werner" r:id="rId6" sheetId="4"/>
+    <sheet name="Krämer-Kersting,Christine" r:id="rId7" sheetId="5"/>
+    <sheet name="Haine-Maida" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="148">
   <si>
     <t>briefDatum</t>
   </si>
@@ -60,19 +64,19 @@
     <t>mitKonto</t>
   </si>
   <si>
-    <t>13.10.14</t>
+    <t>03.06.15</t>
   </si>
   <si>
     <t>Familie</t>
   </si>
   <si>
-    <t>Diener</t>
-  </si>
-  <si>
-    <t>Haferkamp 1</t>
-  </si>
-  <si>
-    <t>59192 Bergkamen</t>
+    <t>Voß</t>
+  </si>
+  <si>
+    <t>Saarbrückerweg 24</t>
+  </si>
+  <si>
+    <t>59439 Holzwickede</t>
   </si>
   <si>
     <t>Sehr geehrte Familie</t>
@@ -84,28 +88,55 @@
     <t>2014</t>
   </si>
   <si>
-    <t>48,03</t>
-  </si>
-  <si>
-    <t>0016207573</t>
-  </si>
-  <si>
-    <t>41051845</t>
-  </si>
-  <si>
-    <t>Sparkasse Bergkamen-Bönen,59180 Bergkamen</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>Mischke</t>
+  </si>
+  <si>
+    <t>Hessel</t>
+  </si>
+  <si>
+    <t>2203298601</t>
+  </si>
+  <si>
+    <t>44160014</t>
+  </si>
+  <si>
+    <t>Dortmunder Volksbank,44128 Dortmund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr  Werner Hessel </t>
   </si>
   <si>
     <t>ja</t>
   </si>
   <si>
+    <t>Krämer-Kersting</t>
+  </si>
+  <si>
+    <t>2420350701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frau  Christine Krämer-Kersting </t>
+  </si>
+  <si>
+    <t>Haine-Maida</t>
+  </si>
+  <si>
     <t xml:space="preserve">Betriebskostenabrechnung </t>
   </si>
   <si>
     <t>Monat:01-12</t>
   </si>
   <si>
-    <t>Haferkamp  1 , 59192  Bergkamen,2014,vom:08.10.14</t>
+    <t>Saarbrückerweg  24 , 59439  Holzwickede,2014,vom:17.05.15</t>
   </si>
   <si>
     <t>Mieter:</t>
@@ -129,94 +160,307 @@
     <t>Betrag</t>
   </si>
   <si>
+    <t>Entwässerung</t>
+  </si>
+  <si>
+    <t>1.104,00</t>
+  </si>
+  <si>
+    <t>Zaehler</t>
+  </si>
+  <si>
+    <t>26,640+12,080+65,803</t>
+  </si>
+  <si>
+    <t>363,14</t>
+  </si>
+  <si>
+    <t>Entwässerung Fläche</t>
+  </si>
+  <si>
+    <t>263,94</t>
+  </si>
+  <si>
+    <t>qm</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>76,58</t>
+  </si>
+  <si>
     <t>Grundsteuer</t>
   </si>
   <si>
-    <t>214,16</t>
+    <t>1.126,38</t>
+  </si>
+  <si>
+    <t>326,83</t>
+  </si>
+  <si>
+    <t>Müllabfuhr</t>
+  </si>
+  <si>
+    <t>794,64</t>
+  </si>
+  <si>
+    <t>Personen</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>317,86</t>
+  </si>
+  <si>
+    <t>Müllabfuhr Bio</t>
+  </si>
+  <si>
+    <t>107,52</t>
+  </si>
+  <si>
+    <t>43,01</t>
+  </si>
+  <si>
+    <t>Gebäudeversicherung</t>
+  </si>
+  <si>
+    <t>753,86</t>
+  </si>
+  <si>
+    <t>218,74</t>
+  </si>
+  <si>
+    <t>Grundstückspflege</t>
+  </si>
+  <si>
+    <t>748,51</t>
+  </si>
+  <si>
+    <t>217,18</t>
+  </si>
+  <si>
+    <t>Haftpflichtversicherung</t>
+  </si>
+  <si>
+    <t>115,00</t>
+  </si>
+  <si>
+    <t>33,37</t>
+  </si>
+  <si>
+    <t>Kabelfernsehen</t>
+  </si>
+  <si>
+    <t>991,20</t>
   </si>
   <si>
     <t>Haushalt</t>
   </si>
   <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>Müllabfuhr</t>
-  </si>
-  <si>
-    <t>219,60</t>
-  </si>
-  <si>
-    <t>Müllabfuhr Bio</t>
-  </si>
-  <si>
-    <t>52,20</t>
-  </si>
-  <si>
-    <t>Entwässerung</t>
-  </si>
-  <si>
-    <t>497,80</t>
-  </si>
-  <si>
-    <t>Entwässerung Fläche</t>
-  </si>
-  <si>
-    <t>144,96</t>
-  </si>
-  <si>
-    <t>Gebäudeversicherung</t>
-  </si>
-  <si>
-    <t>251,64</t>
-  </si>
-  <si>
-    <t>Haftpflichtversicherung</t>
-  </si>
-  <si>
-    <t>40,38</t>
-  </si>
-  <si>
-    <t>Heizungswartung</t>
-  </si>
-  <si>
-    <t>143,45</t>
-  </si>
-  <si>
-    <t>Rauchmelder</t>
-  </si>
-  <si>
-    <t>30,37</t>
-  </si>
-  <si>
-    <t>2% Umlageausfallwagnis</t>
-  </si>
-  <si>
-    <t>31,89</t>
-  </si>
-  <si>
-    <t>gesetzliche Umlage</t>
-  </si>
-  <si>
-    <t/>
+    <t>1</t>
+  </si>
+  <si>
+    <t>198,24</t>
+  </si>
+  <si>
+    <t>Mietwasseruhr</t>
+  </si>
+  <si>
+    <t>189,20</t>
+  </si>
+  <si>
+    <t>stck</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>51,60</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>753,00</t>
+  </si>
+  <si>
+    <t>247,68</t>
   </si>
   <si>
     <t>Summe</t>
   </si>
   <si>
-    <t>1.626,45</t>
+    <t>2.094,23</t>
   </si>
   <si>
     <t>gezahlte Pauschale</t>
   </si>
   <si>
-    <t xml:space="preserve">12*139,54 </t>
-  </si>
-  <si>
-    <t>1.674,48</t>
-  </si>
-  <si>
-    <t>Ihr Guthaben:</t>
+    <t xml:space="preserve">5*140,00 </t>
+  </si>
+  <si>
+    <t>700,00</t>
+  </si>
+  <si>
+    <t>Nachzuzahlen:</t>
+  </si>
+  <si>
+    <t>-1.394,23</t>
+  </si>
+  <si>
+    <t>13,590+49,672</t>
+  </si>
+  <si>
+    <t>219,79</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>41,03</t>
+  </si>
+  <si>
+    <t>175,08</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>158,93</t>
+  </si>
+  <si>
+    <t>21,50</t>
+  </si>
+  <si>
+    <t>117,18</t>
+  </si>
+  <si>
+    <t>116,35</t>
+  </si>
+  <si>
+    <t>17,88</t>
+  </si>
+  <si>
+    <t>34,40</t>
+  </si>
+  <si>
+    <t>149,91</t>
+  </si>
+  <si>
+    <t>1.250,29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1*90,00 </t>
+  </si>
+  <si>
+    <t>90,00</t>
+  </si>
+  <si>
+    <t>-1.160,29</t>
+  </si>
+  <si>
+    <t>29,988+5,845</t>
+  </si>
+  <si>
+    <t>124,49</t>
+  </si>
+  <si>
+    <t>79,46</t>
+  </si>
+  <si>
+    <t>10,75</t>
+  </si>
+  <si>
+    <t>84,91</t>
+  </si>
+  <si>
+    <t>999,77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1*75,00 </t>
+  </si>
+  <si>
+    <t>75,00</t>
+  </si>
+  <si>
+    <t>-924,77</t>
+  </si>
+  <si>
+    <t>32,585+11,047</t>
+  </si>
+  <si>
+    <t>151,59</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>39,66</t>
+  </si>
+  <si>
+    <t>169,25</t>
+  </si>
+  <si>
+    <t>113,27</t>
+  </si>
+  <si>
+    <t>112,47</t>
+  </si>
+  <si>
+    <t>17,28</t>
+  </si>
+  <si>
+    <t>103,39</t>
+  </si>
+  <si>
+    <t>1.029,76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1*65,00 </t>
+  </si>
+  <si>
+    <t>65,00</t>
+  </si>
+  <si>
+    <t>-964,76</t>
+  </si>
+  <si>
+    <t>55,131+15,386</t>
+  </si>
+  <si>
+    <t>244,99</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>65,64</t>
+  </si>
+  <si>
+    <t>280,14</t>
+  </si>
+  <si>
+    <t>187,49</t>
+  </si>
+  <si>
+    <t>186,16</t>
+  </si>
+  <si>
+    <t>28,60</t>
+  </si>
+  <si>
+    <t>167,10</t>
+  </si>
+  <si>
+    <t>1.573,19</t>
+  </si>
+  <si>
+    <t>0,00</t>
+  </si>
+  <si>
+    <t>-1.573,19</t>
   </si>
 </sst>
 </file>
@@ -349,16 +593,204 @@
         <v>24</v>
       </c>
       <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -384,23 +816,23 @@
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -408,282 +840,1682 @@
     </row>
     <row r="4" ht="21.0" customHeight="true">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="true">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
       <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="true">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" ht="21.0" customHeight="true">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="19.53125" customWidth="true"/>
+    <col min="3" max="3" width="19.53125" customWidth="true"/>
+    <col min="4" max="4" width="21.640625" customWidth="true"/>
+    <col min="5" max="5" width="27.64453125" customWidth="true"/>
+    <col min="6" max="6" width="17.75" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="true">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="true">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="true">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="true">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="true">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="true">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="true">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="true">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="true">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="true">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="true">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="true">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="true">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="true">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" ht="21.0" customHeight="true">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="true">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" ht="21.0" customHeight="true">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="19.53125" customWidth="true"/>
+    <col min="3" max="3" width="19.53125" customWidth="true"/>
+    <col min="4" max="4" width="21.640625" customWidth="true"/>
+    <col min="5" max="5" width="27.64453125" customWidth="true"/>
+    <col min="6" max="6" width="17.75" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="true">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="true">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="true">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="true">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="true">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="true">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="true">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="true">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="true">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="true">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="true">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="true">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="true">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="true">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" ht="21.0" customHeight="true">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="true">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" ht="21.0" customHeight="true">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="19.53125" customWidth="true"/>
+    <col min="3" max="3" width="19.53125" customWidth="true"/>
+    <col min="4" max="4" width="21.640625" customWidth="true"/>
+    <col min="5" max="5" width="27.64453125" customWidth="true"/>
+    <col min="6" max="6" width="17.75" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="true">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="true">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="true">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="true">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="true">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="true">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="true">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="true">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="true">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="true">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="true">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="true">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="true">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="true">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" ht="21.0" customHeight="true">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="true">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" ht="21.0" customHeight="true">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="19.53125" customWidth="true"/>
+    <col min="3" max="3" width="19.53125" customWidth="true"/>
+    <col min="4" max="4" width="21.640625" customWidth="true"/>
+    <col min="5" max="5" width="27.64453125" customWidth="true"/>
+    <col min="6" max="6" width="17.75" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="true">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="true">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="true">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="true">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="true">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="true">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="true">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="true">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="true">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="true">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="true">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="true">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="true">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="true">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" ht="21.0" customHeight="true">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="true">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" ht="21.0" customHeight="true">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="137">
   <si>
     <t>briefDatum</t>
   </si>
@@ -64,7 +64,7 @@
     <t>mitKonto</t>
   </si>
   <si>
-    <t>03.06.15</t>
+    <t>09.06.15</t>
   </si>
   <si>
     <t>Familie</t>
@@ -145,31 +145,34 @@
     <t>Kostenart</t>
   </si>
   <si>
-    <t>Gesamtbetrag</t>
-  </si>
-  <si>
-    <t>Umlagebetrag</t>
-  </si>
-  <si>
-    <t>Umlageschlüssel</t>
-  </si>
-  <si>
-    <t>Formel</t>
-  </si>
-  <si>
-    <t>Betrag</t>
+    <t>UmlSchl</t>
+  </si>
+  <si>
+    <t>Ges €</t>
+  </si>
+  <si>
+    <t>x (Anteil</t>
+  </si>
+  <si>
+    <t>/ MengeGes) =</t>
+  </si>
+  <si>
+    <t>€</t>
   </si>
   <si>
     <t>Entwässerung</t>
   </si>
   <si>
+    <t>Zaehler cbm</t>
+  </si>
+  <si>
     <t>1.104,00</t>
   </si>
   <si>
-    <t>Zaehler</t>
-  </si>
-  <si>
-    <t>26,640+12,080+65,803</t>
+    <t>65,803+26,640+12,080</t>
+  </si>
+  <si>
+    <t>317,767</t>
   </si>
   <si>
     <t>363,14</t>
@@ -178,15 +181,18 @@
     <t>Entwässerung Fläche</t>
   </si>
   <si>
+    <t xml:space="preserve">qm </t>
+  </si>
+  <si>
     <t>263,94</t>
   </si>
   <si>
-    <t>qm</t>
-  </si>
-  <si>
     <t>112</t>
   </si>
   <si>
+    <t>386</t>
+  </si>
+  <si>
     <t>76,58</t>
   </si>
   <si>
@@ -202,15 +208,18 @@
     <t>Müllabfuhr</t>
   </si>
   <si>
+    <t xml:space="preserve">Personen </t>
+  </si>
+  <si>
     <t>794,64</t>
   </si>
   <si>
-    <t>Personen</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>317,86</t>
   </si>
   <si>
@@ -253,30 +262,36 @@
     <t>Kabelfernsehen</t>
   </si>
   <si>
+    <t xml:space="preserve">Haushalt </t>
+  </si>
+  <si>
     <t>991,20</t>
   </si>
   <si>
-    <t>Haushalt</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>198,24</t>
   </si>
   <si>
     <t>Mietwasseruhr</t>
   </si>
   <si>
+    <t xml:space="preserve">stck </t>
+  </si>
+  <si>
     <t>189,20</t>
   </si>
   <si>
-    <t>stck</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>51,60</t>
   </si>
   <si>
@@ -295,21 +310,6 @@
     <t>2.094,23</t>
   </si>
   <si>
-    <t>gezahlte Pauschale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5*140,00 </t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>Nachzuzahlen:</t>
-  </si>
-  <si>
-    <t>-1.394,23</t>
-  </si>
-  <si>
     <t>13,590+49,672</t>
   </si>
   <si>
@@ -352,16 +352,7 @@
     <t>1.250,29</t>
   </si>
   <si>
-    <t xml:space="preserve">1*90,00 </t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>-1.160,29</t>
-  </si>
-  <si>
-    <t>29,988+5,845</t>
+    <t>5,845+29,988</t>
   </si>
   <si>
     <t>124,49</t>
@@ -379,15 +370,6 @@
     <t>999,77</t>
   </si>
   <si>
-    <t xml:space="preserve">1*75,00 </t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>-924,77</t>
-  </si>
-  <si>
     <t>32,585+11,047</t>
   </si>
   <si>
@@ -418,15 +400,6 @@
     <t>1.029,76</t>
   </si>
   <si>
-    <t xml:space="preserve">1*65,00 </t>
-  </si>
-  <si>
-    <t>65,00</t>
-  </si>
-  <si>
-    <t>-964,76</t>
-  </si>
-  <si>
     <t>55,131+15,386</t>
   </si>
   <si>
@@ -455,12 +428,6 @@
   </si>
   <si>
     <t>1.573,19</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>-1.573,19</t>
   </si>
 </sst>
 </file>
@@ -497,8 +464,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -809,19 +779,19 @@
     <col min="1" max="1" width="19.53125" customWidth="true"/>
     <col min="2" max="2" width="19.53125" customWidth="true"/>
     <col min="3" max="3" width="19.53125" customWidth="true"/>
-    <col min="4" max="4" width="21.640625" customWidth="true"/>
-    <col min="5" max="5" width="27.64453125" customWidth="true"/>
-    <col min="6" max="6" width="17.75" customWidth="true"/>
+    <col min="4" max="4" width="19.53125" customWidth="true"/>
+    <col min="5" max="5" width="19.53125" customWidth="true"/>
+    <col min="6" max="6" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -834,7 +804,7 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -842,19 +812,19 @@
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -862,279 +832,239 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
       <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D6" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
       <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
         <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C8" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
       <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
       <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
       <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
       <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
       <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="B13" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
         <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
-        <v>89</v>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" ht="21.0" customHeight="true">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" ht="21.0" customHeight="true">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="F16" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1154,19 +1084,19 @@
     <col min="1" max="1" width="19.53125" customWidth="true"/>
     <col min="2" max="2" width="19.53125" customWidth="true"/>
     <col min="3" max="3" width="19.53125" customWidth="true"/>
-    <col min="4" max="4" width="21.640625" customWidth="true"/>
-    <col min="5" max="5" width="27.64453125" customWidth="true"/>
-    <col min="6" max="6" width="17.75" customWidth="true"/>
+    <col min="4" max="4" width="19.53125" customWidth="true"/>
+    <col min="5" max="5" width="19.53125" customWidth="true"/>
+    <col min="6" max="6" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1179,7 +1109,7 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1187,19 +1117,19 @@
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1207,219 +1137,219 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
       <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
       <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
       <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
       <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
       <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
       <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
       <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="B13" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1427,60 +1357,20 @@
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="17" ht="21.0" customHeight="true">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" ht="21.0" customHeight="true">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1499,19 +1389,19 @@
     <col min="1" max="1" width="19.53125" customWidth="true"/>
     <col min="2" max="2" width="19.53125" customWidth="true"/>
     <col min="3" max="3" width="19.53125" customWidth="true"/>
-    <col min="4" max="4" width="21.640625" customWidth="true"/>
-    <col min="5" max="5" width="27.64453125" customWidth="true"/>
-    <col min="6" max="6" width="17.75" customWidth="true"/>
+    <col min="4" max="4" width="19.53125" customWidth="true"/>
+    <col min="5" max="5" width="19.53125" customWidth="true"/>
+    <col min="6" max="6" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1524,7 +1414,7 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1532,19 +1422,19 @@
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1552,280 +1442,240 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" t="s">
-        <v>115</v>
+      <c r="D5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
       <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
       <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>116</v>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
       <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" t="s">
-        <v>117</v>
+      <c r="F9" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
       <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
       <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
       <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
       <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="B13" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" t="s">
-        <v>118</v>
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" ht="21.0" customHeight="true">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" ht="21.0" customHeight="true">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>122</v>
+      <c r="F16" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1844,19 +1694,19 @@
     <col min="1" max="1" width="19.53125" customWidth="true"/>
     <col min="2" max="2" width="19.53125" customWidth="true"/>
     <col min="3" max="3" width="19.53125" customWidth="true"/>
-    <col min="4" max="4" width="21.640625" customWidth="true"/>
-    <col min="5" max="5" width="27.64453125" customWidth="true"/>
-    <col min="6" max="6" width="17.75" customWidth="true"/>
+    <col min="4" max="4" width="19.53125" customWidth="true"/>
+    <col min="5" max="5" width="19.53125" customWidth="true"/>
+    <col min="6" max="6" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1869,7 +1719,7 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1877,19 +1727,19 @@
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1897,280 +1747,240 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>124</v>
+      <c r="D5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
       <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" t="s">
-        <v>126</v>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
       <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" t="s">
-        <v>127</v>
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>116</v>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
       <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" t="s">
-        <v>117</v>
+      <c r="F9" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
       <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" t="s">
-        <v>128</v>
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
       <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" t="s">
-        <v>129</v>
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
       <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" t="s">
-        <v>130</v>
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
       <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="B13" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" t="s">
-        <v>131</v>
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" ht="21.0" customHeight="true">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" ht="21.0" customHeight="true">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>135</v>
+      <c r="F16" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2189,19 +1999,19 @@
     <col min="1" max="1" width="19.53125" customWidth="true"/>
     <col min="2" max="2" width="19.53125" customWidth="true"/>
     <col min="3" max="3" width="19.53125" customWidth="true"/>
-    <col min="4" max="4" width="21.640625" customWidth="true"/>
-    <col min="5" max="5" width="27.64453125" customWidth="true"/>
-    <col min="6" max="6" width="17.75" customWidth="true"/>
+    <col min="4" max="4" width="19.53125" customWidth="true"/>
+    <col min="5" max="5" width="19.53125" customWidth="true"/>
+    <col min="6" max="6" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2214,7 +2024,7 @@
       <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2222,19 +2032,19 @@
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2242,280 +2052,240 @@
       <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" t="s">
-        <v>137</v>
+      <c r="D5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
       <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" t="s">
-        <v>139</v>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
       <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" t="s">
-        <v>140</v>
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
       <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
       <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" t="s">
-        <v>141</v>
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
       <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" t="s">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
       <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" t="s">
-        <v>143</v>
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
       <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
         <v>80</v>
       </c>
-      <c r="F13" t="s">
+      <c r="B13" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" t="s">
-        <v>144</v>
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" ht="21.0" customHeight="true">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" ht="21.0" customHeight="true">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>147</v>
+      <c r="F16" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="151">
   <si>
     <t>briefDatum</t>
   </si>
@@ -64,7 +64,7 @@
     <t>mitKonto</t>
   </si>
   <si>
-    <t>09.06.15</t>
+    <t>01.07.15</t>
   </si>
   <si>
     <t>Familie</t>
@@ -88,229 +88,271 @@
     <t>2014</t>
   </si>
   <si>
-    <t>0</t>
+    <t>-414,23</t>
+  </si>
+  <si>
+    <t>0002627370</t>
+  </si>
+  <si>
+    <t>44350060</t>
+  </si>
+  <si>
+    <t>Kreis- und Stadtsparkasse Unna,59409 Unna</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Mischke</t>
+  </si>
+  <si>
+    <t>-170,29</t>
+  </si>
+  <si>
+    <t>2202770602</t>
+  </si>
+  <si>
+    <t>44160014</t>
+  </si>
+  <si>
+    <t>Dortmunder Volksbank,44128 Dortmund</t>
+  </si>
+  <si>
+    <t>Herr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Werner Hessel </t>
+  </si>
+  <si>
+    <t>Sehr geehrter Herr</t>
+  </si>
+  <si>
+    <t>Hessel</t>
+  </si>
+  <si>
+    <t>-99,77</t>
+  </si>
+  <si>
+    <t>2203298601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herr  Werner Hessel </t>
+  </si>
+  <si>
+    <t>Frau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christine Krämer-Kersting </t>
+  </si>
+  <si>
+    <t>Sehr geehrte Frau</t>
+  </si>
+  <si>
+    <t>Krämer-Kersting</t>
+  </si>
+  <si>
+    <t>-249,76</t>
+  </si>
+  <si>
+    <t>2420350701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frau  Christine Krämer-Kersting </t>
+  </si>
+  <si>
+    <t>Haine-Maida</t>
+  </si>
+  <si>
+    <t>-253,19</t>
+  </si>
+  <si>
+    <t>0003628658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betriebskostenabrechnung </t>
+  </si>
+  <si>
+    <t>Monat:01-12</t>
+  </si>
+  <si>
+    <t>Saarbrückerweg  24 , 59439  Holzwickede,2014,vom:17.05.15</t>
+  </si>
+  <si>
+    <t>Mieter:</t>
+  </si>
+  <si>
+    <t>Kostenart</t>
+  </si>
+  <si>
+    <t>UmlSchl</t>
+  </si>
+  <si>
+    <t>Ges €</t>
+  </si>
+  <si>
+    <t>x (Anteil</t>
+  </si>
+  <si>
+    <t>/ MengeGes) =</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>Entwässerung</t>
+  </si>
+  <si>
+    <t>Zaehler cbm</t>
+  </si>
+  <si>
+    <t>1.104,00</t>
+  </si>
+  <si>
+    <t>12,080+26,640+65,803</t>
+  </si>
+  <si>
+    <t>317,767</t>
+  </si>
+  <si>
+    <t>363,14</t>
+  </si>
+  <si>
+    <t>Entwässerung Fläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qm </t>
+  </si>
+  <si>
+    <t>263,94</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>76,58</t>
+  </si>
+  <si>
+    <t>Grundsteuer</t>
+  </si>
+  <si>
+    <t>1.126,38</t>
+  </si>
+  <si>
+    <t>326,83</t>
+  </si>
+  <si>
+    <t>Müllabfuhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personen </t>
+  </si>
+  <si>
+    <t>794,64</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>317,86</t>
+  </si>
+  <si>
+    <t>Müllabfuhr Bio</t>
+  </si>
+  <si>
+    <t>107,52</t>
+  </si>
+  <si>
+    <t>43,01</t>
+  </si>
+  <si>
+    <t>Gebäudeversicherung</t>
+  </si>
+  <si>
+    <t>753,86</t>
+  </si>
+  <si>
+    <t>218,74</t>
+  </si>
+  <si>
+    <t>Grundstückspflege</t>
+  </si>
+  <si>
+    <t>748,51</t>
+  </si>
+  <si>
+    <t>217,18</t>
+  </si>
+  <si>
+    <t>Haftpflichtversicherung</t>
+  </si>
+  <si>
+    <t>115,00</t>
+  </si>
+  <si>
+    <t>33,37</t>
+  </si>
+  <si>
+    <t>Kabelfernsehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haushalt </t>
+  </si>
+  <si>
+    <t>991,20</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>198,24</t>
+  </si>
+  <si>
+    <t>Mietwasseruhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stck </t>
+  </si>
+  <si>
+    <t>189,20</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>51,60</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>753,00</t>
+  </si>
+  <si>
+    <t>247,68</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>nein</t>
-  </si>
-  <si>
-    <t>Mischke</t>
-  </si>
-  <si>
-    <t>Hessel</t>
-  </si>
-  <si>
-    <t>2203298601</t>
-  </si>
-  <si>
-    <t>44160014</t>
-  </si>
-  <si>
-    <t>Dortmunder Volksbank,44128 Dortmund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herr  Werner Hessel </t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>Krämer-Kersting</t>
-  </si>
-  <si>
-    <t>2420350701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frau  Christine Krämer-Kersting </t>
-  </si>
-  <si>
-    <t>Haine-Maida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betriebskostenabrechnung </t>
-  </si>
-  <si>
-    <t>Monat:01-12</t>
-  </si>
-  <si>
-    <t>Saarbrückerweg  24 , 59439  Holzwickede,2014,vom:17.05.15</t>
-  </si>
-  <si>
-    <t>Mieter:</t>
-  </si>
-  <si>
-    <t>Kostenart</t>
-  </si>
-  <si>
-    <t>UmlSchl</t>
-  </si>
-  <si>
-    <t>Ges €</t>
-  </si>
-  <si>
-    <t>x (Anteil</t>
-  </si>
-  <si>
-    <t>/ MengeGes) =</t>
-  </si>
-  <si>
-    <t>€</t>
-  </si>
-  <si>
-    <t>Entwässerung</t>
-  </si>
-  <si>
-    <t>Zaehler cbm</t>
-  </si>
-  <si>
-    <t>1.104,00</t>
-  </si>
-  <si>
-    <t>65,803+26,640+12,080</t>
-  </si>
-  <si>
-    <t>317,767</t>
-  </si>
-  <si>
-    <t>363,14</t>
-  </si>
-  <si>
-    <t>Entwässerung Fläche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qm </t>
-  </si>
-  <si>
-    <t>263,94</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>386</t>
-  </si>
-  <si>
-    <t>76,58</t>
-  </si>
-  <si>
-    <t>Grundsteuer</t>
-  </si>
-  <si>
-    <t>1.126,38</t>
-  </si>
-  <si>
-    <t>326,83</t>
-  </si>
-  <si>
-    <t>Müllabfuhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personen </t>
-  </si>
-  <si>
-    <t>794,64</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>317,86</t>
-  </si>
-  <si>
-    <t>Müllabfuhr Bio</t>
-  </si>
-  <si>
-    <t>107,52</t>
-  </si>
-  <si>
-    <t>43,01</t>
-  </si>
-  <si>
-    <t>Gebäudeversicherung</t>
-  </si>
-  <si>
-    <t>753,86</t>
-  </si>
-  <si>
-    <t>218,74</t>
-  </si>
-  <si>
-    <t>Grundstückspflege</t>
-  </si>
-  <si>
-    <t>748,51</t>
-  </si>
-  <si>
-    <t>217,18</t>
-  </si>
-  <si>
-    <t>Haftpflichtversicherung</t>
-  </si>
-  <si>
-    <t>115,00</t>
-  </si>
-  <si>
-    <t>33,37</t>
-  </si>
-  <si>
-    <t>Kabelfernsehen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haushalt </t>
-  </si>
-  <si>
-    <t>991,20</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>198,24</t>
-  </si>
-  <si>
-    <t>Mietwasseruhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stck </t>
-  </si>
-  <si>
-    <t>189,20</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>51,60</t>
-  </si>
-  <si>
-    <t>Wasser</t>
-  </si>
-  <si>
-    <t>753,00</t>
-  </si>
-  <si>
-    <t>247,68</t>
-  </si>
-  <si>
     <t>Summe</t>
   </si>
   <si>
     <t>2.094,23</t>
   </si>
   <si>
-    <t>13,590+49,672</t>
+    <t>49,672+13,590</t>
   </si>
   <si>
     <t>219,79</t>
@@ -352,7 +394,7 @@
     <t>1.250,29</t>
   </si>
   <si>
-    <t>5,845+29,988</t>
+    <t>29,988+5,845</t>
   </si>
   <si>
     <t>124,49</t>
@@ -370,7 +412,7 @@
     <t>999,77</t>
   </si>
   <si>
-    <t>32,585+11,047</t>
+    <t>11,047+32,585</t>
   </si>
   <si>
     <t>151,59</t>
@@ -563,16 +605,16 @@
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -583,7 +625,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -595,7 +637,7 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
@@ -604,22 +646,22 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -627,10 +669,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -639,10 +681,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -651,22 +693,22 @@
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -674,10 +716,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -686,10 +728,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -698,22 +740,22 @@
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -724,7 +766,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -736,7 +778,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -745,22 +787,22 @@
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -786,23 +828,23 @@
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -810,262 +852,262 @@
     </row>
     <row r="4" ht="21.0" customHeight="true">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="true">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1091,286 +1133,286 @@
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="true">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="true">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1396,286 +1438,286 @@
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="true">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="true">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1701,286 +1743,286 @@
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="true">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="true">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2006,286 +2048,286 @@
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="true">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="true">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="150">
   <si>
     <t>briefDatum</t>
   </si>
@@ -64,7 +64,7 @@
     <t>mitKonto</t>
   </si>
   <si>
-    <t>01.07.15</t>
+    <t>02.07.15</t>
   </si>
   <si>
     <t>Familie</t>
@@ -88,7 +88,7 @@
     <t>2014</t>
   </si>
   <si>
-    <t>-414,23</t>
+    <t>-425,70</t>
   </si>
   <si>
     <t>0002627370</t>
@@ -106,7 +106,7 @@
     <t>Mischke</t>
   </si>
   <si>
-    <t>-170,29</t>
+    <t>-167,42</t>
   </si>
   <si>
     <t>2202770602</t>
@@ -130,7 +130,7 @@
     <t>Hessel</t>
   </si>
   <si>
-    <t>-99,77</t>
+    <t>-96,90</t>
   </si>
   <si>
     <t>2203298601</t>
@@ -151,7 +151,7 @@
     <t>Krämer-Kersting</t>
   </si>
   <si>
-    <t>-249,76</t>
+    <t>-246,89</t>
   </si>
   <si>
     <t>2420350701</t>
@@ -163,7 +163,7 @@
     <t>Haine-Maida</t>
   </si>
   <si>
-    <t>-253,19</t>
+    <t>-250,32</t>
   </si>
   <si>
     <t>0003628658</t>
@@ -208,7 +208,7 @@
     <t>1.104,00</t>
   </si>
   <si>
-    <t>12,080+26,640+65,803</t>
+    <t>65,803+26,640+1,300+10,780</t>
   </si>
   <si>
     <t>317,767</t>
@@ -325,13 +325,10 @@
     <t>189,20</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>51,60</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>63,07</t>
   </si>
   <si>
     <t>Wasser</t>
@@ -349,7 +346,7 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>2.094,23</t>
+    <t>2.105,70</t>
   </si>
   <si>
     <t>49,672+13,590</t>
@@ -385,13 +382,13 @@
     <t>17,88</t>
   </si>
   <si>
-    <t>34,40</t>
+    <t>31,53</t>
   </si>
   <si>
     <t>149,91</t>
   </si>
   <si>
-    <t>1.250,29</t>
+    <t>1.247,42</t>
   </si>
   <si>
     <t>29,988+5,845</t>
@@ -409,10 +406,10 @@
     <t>84,91</t>
   </si>
   <si>
-    <t>999,77</t>
-  </si>
-  <si>
-    <t>11,047+32,585</t>
+    <t>996,90</t>
+  </si>
+  <si>
+    <t>32,585+11,047</t>
   </si>
   <si>
     <t>151,59</t>
@@ -439,7 +436,7 @@
     <t>103,39</t>
   </si>
   <si>
-    <t>1.029,76</t>
+    <t>1.026,89</t>
   </si>
   <si>
     <t>55,131+15,386</t>
@@ -469,7 +466,7 @@
     <t>167,10</t>
   </si>
   <si>
-    <t>1.573,19</t>
+    <t>1.570,32</t>
   </si>
 </sst>
 </file>
@@ -1061,24 +1058,24 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>63</v>
@@ -1087,27 +1084,27 @@
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1186,13 +1183,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -1206,13 +1203,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -1226,13 +1223,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -1246,13 +1243,13 @@
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -1266,13 +1263,13 @@
         <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -1286,13 +1283,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -1306,13 +1303,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -1326,13 +1323,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -1366,53 +1363,53 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1491,13 +1488,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -1511,13 +1508,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -1531,13 +1528,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -1557,7 +1554,7 @@
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -1577,7 +1574,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -1591,13 +1588,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -1611,13 +1608,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -1631,13 +1628,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -1671,53 +1668,53 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1796,13 +1793,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -1816,13 +1813,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -1836,13 +1833,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -1862,7 +1859,7 @@
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -1882,7 +1879,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -1896,13 +1893,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -1916,13 +1913,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -1936,13 +1933,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -1976,53 +1973,53 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2101,13 +2098,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -2121,13 +2118,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -2141,13 +2138,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -2161,13 +2158,13 @@
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -2181,13 +2178,13 @@
         <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -2201,13 +2198,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -2221,13 +2218,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -2241,13 +2238,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -2281,53 +2278,53 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="151">
   <si>
     <t>briefDatum</t>
   </si>
@@ -88,7 +88,7 @@
     <t>2014</t>
   </si>
   <si>
-    <t>-425,70</t>
+    <t>-414,23</t>
   </si>
   <si>
     <t>0002627370</t>
@@ -106,7 +106,7 @@
     <t>Mischke</t>
   </si>
   <si>
-    <t>-167,42</t>
+    <t>-170,29</t>
   </si>
   <si>
     <t>2202770602</t>
@@ -130,7 +130,7 @@
     <t>Hessel</t>
   </si>
   <si>
-    <t>-96,90</t>
+    <t>-99,77</t>
   </si>
   <si>
     <t>2203298601</t>
@@ -151,7 +151,7 @@
     <t>Krämer-Kersting</t>
   </si>
   <si>
-    <t>-246,89</t>
+    <t>-249,76</t>
   </si>
   <si>
     <t>2420350701</t>
@@ -163,7 +163,7 @@
     <t>Haine-Maida</t>
   </si>
   <si>
-    <t>-250,32</t>
+    <t>-253,19</t>
   </si>
   <si>
     <t>0003628658</t>
@@ -325,10 +325,13 @@
     <t>189,20</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>63,07</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>51,60</t>
   </si>
   <si>
     <t>Wasser</t>
@@ -346,7 +349,7 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>2.105,70</t>
+    <t>2.094,23</t>
   </si>
   <si>
     <t>49,672+13,590</t>
@@ -382,13 +385,13 @@
     <t>17,88</t>
   </si>
   <si>
-    <t>31,53</t>
+    <t>34,40</t>
   </si>
   <si>
     <t>149,91</t>
   </si>
   <si>
-    <t>1.247,42</t>
+    <t>1.250,29</t>
   </si>
   <si>
     <t>29,988+5,845</t>
@@ -406,7 +409,7 @@
     <t>84,91</t>
   </si>
   <si>
-    <t>996,90</t>
+    <t>999,77</t>
   </si>
   <si>
     <t>32,585+11,047</t>
@@ -436,7 +439,7 @@
     <t>103,39</t>
   </si>
   <si>
-    <t>1.026,89</t>
+    <t>1.029,76</t>
   </si>
   <si>
     <t>55,131+15,386</t>
@@ -466,7 +469,7 @@
     <t>167,10</t>
   </si>
   <si>
-    <t>1.570,32</t>
+    <t>1.573,19</t>
   </si>
 </sst>
 </file>
@@ -1058,24 +1061,24 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>63</v>
@@ -1084,27 +1087,27 @@
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1183,13 +1186,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -1203,13 +1206,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -1223,13 +1226,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -1243,13 +1246,13 @@
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -1263,13 +1266,13 @@
         <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -1283,13 +1286,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -1303,13 +1306,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -1323,13 +1326,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -1363,53 +1366,53 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1488,13 +1491,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -1508,13 +1511,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -1528,13 +1531,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -1554,7 +1557,7 @@
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -1574,7 +1577,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -1588,13 +1591,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -1608,13 +1611,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -1628,13 +1631,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -1668,53 +1671,53 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1793,13 +1796,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -1813,13 +1816,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -1833,13 +1836,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -1859,7 +1862,7 @@
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -1879,7 +1882,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -1893,13 +1896,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -1913,13 +1916,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -1933,13 +1936,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -1973,53 +1976,53 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2098,13 +2101,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -2118,13 +2121,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -2138,13 +2141,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -2158,13 +2161,13 @@
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -2178,13 +2181,13 @@
         <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -2198,13 +2201,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -2218,13 +2221,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -2238,13 +2241,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -2278,53 +2281,53 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="207">
   <si>
     <t>briefDatum</t>
   </si>
@@ -64,7 +64,7 @@
     <t>mitKonto</t>
   </si>
   <si>
-    <t>02.07.15</t>
+    <t>03.07.15</t>
   </si>
   <si>
     <t>Familie</t>
@@ -352,6 +352,66 @@
     <t>2.094,23</t>
   </si>
   <si>
+    <t>Zwischenzähler</t>
+  </si>
+  <si>
+    <t>Stand Neu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Alt</t>
+  </si>
+  <si>
+    <t>Verbrauch</t>
+  </si>
+  <si>
+    <t>EgRe Bad oben</t>
+  </si>
+  <si>
+    <t>142.614</t>
+  </si>
+  <si>
+    <t>76.811</t>
+  </si>
+  <si>
+    <t>65.803</t>
+  </si>
+  <si>
+    <t>EgRe Bad unten</t>
+  </si>
+  <si>
+    <t>112.384</t>
+  </si>
+  <si>
+    <t>85.744</t>
+  </si>
+  <si>
+    <t>26.640</t>
+  </si>
+  <si>
+    <t>EgRe WaschKü.1</t>
+  </si>
+  <si>
+    <t>24.500</t>
+  </si>
+  <si>
+    <t>23.200</t>
+  </si>
+  <si>
+    <t>1.300</t>
+  </si>
+  <si>
+    <t>EgRe WaschKü.2</t>
+  </si>
+  <si>
+    <t>10.780</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>104.523</t>
+  </si>
+  <si>
     <t>49,672+13,590</t>
   </si>
   <si>
@@ -394,6 +454,33 @@
     <t>1.250,29</t>
   </si>
   <si>
+    <t>EgLi Bad</t>
+  </si>
+  <si>
+    <t>366.858</t>
+  </si>
+  <si>
+    <t>317.186</t>
+  </si>
+  <si>
+    <t>49.672</t>
+  </si>
+  <si>
+    <t>EgLi WaschKü</t>
+  </si>
+  <si>
+    <t>29.161</t>
+  </si>
+  <si>
+    <t>15.571</t>
+  </si>
+  <si>
+    <t>13.590</t>
+  </si>
+  <si>
+    <t>63.262</t>
+  </si>
+  <si>
     <t>29,988+5,845</t>
   </si>
   <si>
@@ -412,6 +499,33 @@
     <t>999,77</t>
   </si>
   <si>
+    <t>OgLi Bad</t>
+  </si>
+  <si>
+    <t>155.193</t>
+  </si>
+  <si>
+    <t>125.205</t>
+  </si>
+  <si>
+    <t>29.988</t>
+  </si>
+  <si>
+    <t>OgLi WaschKü</t>
+  </si>
+  <si>
+    <t>12.491</t>
+  </si>
+  <si>
+    <t>6.646</t>
+  </si>
+  <si>
+    <t>5.845</t>
+  </si>
+  <si>
+    <t>35.833</t>
+  </si>
+  <si>
     <t>32,585+11,047</t>
   </si>
   <si>
@@ -442,6 +556,33 @@
     <t>1.029,76</t>
   </si>
   <si>
+    <t>OgRe Bad</t>
+  </si>
+  <si>
+    <t>129.823</t>
+  </si>
+  <si>
+    <t>97.238</t>
+  </si>
+  <si>
+    <t>32.585</t>
+  </si>
+  <si>
+    <t>OgRe WaschKü</t>
+  </si>
+  <si>
+    <t>20.387</t>
+  </si>
+  <si>
+    <t>9.340</t>
+  </si>
+  <si>
+    <t>11.047</t>
+  </si>
+  <si>
+    <t>43.632</t>
+  </si>
+  <si>
     <t>55,131+15,386</t>
   </si>
   <si>
@@ -470,6 +611,33 @@
   </si>
   <si>
     <t>1.573,19</t>
+  </si>
+  <si>
+    <t>Dg Bad</t>
+  </si>
+  <si>
+    <t>153.200</t>
+  </si>
+  <si>
+    <t>98.069</t>
+  </si>
+  <si>
+    <t>55.131</t>
+  </si>
+  <si>
+    <t>Dg WaschKü</t>
+  </si>
+  <si>
+    <t>29.870</t>
+  </si>
+  <si>
+    <t>14.484</t>
+  </si>
+  <si>
+    <t>15.386</t>
+  </si>
+  <si>
+    <t>70.517</t>
   </si>
 </sst>
 </file>
@@ -1110,6 +1278,91 @@
         <v>110</v>
       </c>
     </row>
+    <row r="17" ht="21.0" customHeight="true"/>
+    <row r="18" ht="21.0" customHeight="true">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" ht="21.0" customHeight="true">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" ht="21.0" customHeight="true">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" ht="21.0" customHeight="true">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" ht="21.0" customHeight="true">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" ht="21.0" customHeight="true">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1186,13 +1439,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -1206,13 +1459,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -1226,13 +1479,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -1246,13 +1499,13 @@
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -1266,13 +1519,13 @@
         <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -1286,13 +1539,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -1306,13 +1559,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -1326,13 +1579,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -1366,13 +1619,13 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
@@ -1386,13 +1639,13 @@
         <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
@@ -1412,7 +1665,64 @@
         <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="true"/>
+    <row r="18" ht="21.0" customHeight="true">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" ht="21.0" customHeight="true">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" ht="21.0" customHeight="true">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" ht="21.0" customHeight="true">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1491,13 +1801,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -1511,13 +1821,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -1531,13 +1841,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -1557,7 +1867,7 @@
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -1577,7 +1887,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -1591,13 +1901,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -1611,13 +1921,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -1631,13 +1941,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -1671,13 +1981,13 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
@@ -1691,13 +2001,13 @@
         <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
@@ -1717,7 +2027,64 @@
         <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>130</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="true"/>
+    <row r="18" ht="21.0" customHeight="true">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" ht="21.0" customHeight="true">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" ht="21.0" customHeight="true">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" ht="21.0" customHeight="true">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1796,13 +2163,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -1816,13 +2183,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -1836,13 +2203,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -1862,7 +2229,7 @@
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -1882,7 +2249,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -1896,13 +2263,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -1916,13 +2283,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -1936,13 +2303,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -1976,13 +2343,13 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
@@ -1996,13 +2363,13 @@
         <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
@@ -2022,7 +2389,64 @@
         <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>140</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="true"/>
+    <row r="18" ht="21.0" customHeight="true">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" ht="21.0" customHeight="true">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" ht="21.0" customHeight="true">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" ht="21.0" customHeight="true">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2101,13 +2525,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -2121,13 +2545,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -2141,13 +2565,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -2161,13 +2585,13 @@
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -2181,13 +2605,13 @@
         <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -2201,13 +2625,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -2221,13 +2645,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -2241,13 +2665,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -2281,13 +2705,13 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
@@ -2301,13 +2725,13 @@
         <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
@@ -2327,7 +2751,64 @@
         <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>150</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="true"/>
+    <row r="18" ht="21.0" customHeight="true">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" ht="21.0" customHeight="true">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" ht="21.0" customHeight="true">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" ht="21.0" customHeight="true">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="206">
   <si>
     <t>briefDatum</t>
   </si>
@@ -169,13 +169,13 @@
     <t>0003628658</t>
   </si>
   <si>
-    <t xml:space="preserve">Betriebskostenabrechnung </t>
+    <t xml:space="preserve">Nebenkostenabrechnung </t>
   </si>
   <si>
     <t>Monat:01-12</t>
   </si>
   <si>
-    <t>Saarbrückerweg  24 , 59439  Holzwickede,2014,vom:17.05.15</t>
+    <t>Saarbrückerweg  24 , 59439  Holzwickede,Wohnung,EG- +Souterrain</t>
   </si>
   <si>
     <t>Mieter:</t>
@@ -208,7 +208,7 @@
     <t>1.104,00</t>
   </si>
   <si>
-    <t>65,803+26,640+1,300+10,780</t>
+    <t>104,523</t>
   </si>
   <si>
     <t>317,767</t>
@@ -361,58 +361,58 @@
     <t xml:space="preserve"> - Alt</t>
   </si>
   <si>
-    <t>Verbrauch</t>
+    <t>= Verbrauch</t>
   </si>
   <si>
     <t>EgRe Bad oben</t>
   </si>
   <si>
-    <t>142.614</t>
-  </si>
-  <si>
-    <t>76.811</t>
-  </si>
-  <si>
-    <t>65.803</t>
+    <t>142,614</t>
+  </si>
+  <si>
+    <t>76,811</t>
+  </si>
+  <si>
+    <t>65,803</t>
   </si>
   <si>
     <t>EgRe Bad unten</t>
   </si>
   <si>
-    <t>112.384</t>
-  </si>
-  <si>
-    <t>85.744</t>
-  </si>
-  <si>
-    <t>26.640</t>
+    <t>112,384</t>
+  </si>
+  <si>
+    <t>85,744</t>
+  </si>
+  <si>
+    <t>26,640</t>
   </si>
   <si>
     <t>EgRe WaschKü.1</t>
   </si>
   <si>
-    <t>24.500</t>
-  </si>
-  <si>
-    <t>23.200</t>
-  </si>
-  <si>
-    <t>1.300</t>
+    <t>24,500</t>
+  </si>
+  <si>
+    <t>23,200</t>
+  </si>
+  <si>
+    <t>1,300</t>
   </si>
   <si>
     <t>EgRe WaschKü.2</t>
   </si>
   <si>
-    <t>10.780</t>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t>104.523</t>
-  </si>
-  <si>
-    <t>49,672+13,590</t>
+    <t>10,780</t>
+  </si>
+  <si>
+    <t>0,000</t>
+  </si>
+  <si>
+    <t>Saarbrückerweg  24 , 59439  Holzwickede,Wohnung,EG-li</t>
+  </si>
+  <si>
+    <t>63,262</t>
   </si>
   <si>
     <t>219,79</t>
@@ -457,31 +457,31 @@
     <t>EgLi Bad</t>
   </si>
   <si>
-    <t>366.858</t>
-  </si>
-  <si>
-    <t>317.186</t>
-  </si>
-  <si>
-    <t>49.672</t>
+    <t>366,858</t>
+  </si>
+  <si>
+    <t>317,186</t>
+  </si>
+  <si>
+    <t>49,672</t>
   </si>
   <si>
     <t>EgLi WaschKü</t>
   </si>
   <si>
-    <t>29.161</t>
-  </si>
-  <si>
-    <t>15.571</t>
-  </si>
-  <si>
-    <t>13.590</t>
-  </si>
-  <si>
-    <t>63.262</t>
-  </si>
-  <si>
-    <t>29,988+5,845</t>
+    <t>29,161</t>
+  </si>
+  <si>
+    <t>15,571</t>
+  </si>
+  <si>
+    <t>13,590</t>
+  </si>
+  <si>
+    <t>Saarbrückerweg  24 , 59439  Holzwickede,Wohnung,1.OG-li</t>
+  </si>
+  <si>
+    <t>35,833</t>
   </si>
   <si>
     <t>124,49</t>
@@ -502,31 +502,31 @@
     <t>OgLi Bad</t>
   </si>
   <si>
-    <t>155.193</t>
-  </si>
-  <si>
-    <t>125.205</t>
-  </si>
-  <si>
-    <t>29.988</t>
+    <t>155,193</t>
+  </si>
+  <si>
+    <t>125,205</t>
+  </si>
+  <si>
+    <t>29,988</t>
   </si>
   <si>
     <t>OgLi WaschKü</t>
   </si>
   <si>
-    <t>12.491</t>
-  </si>
-  <si>
-    <t>6.646</t>
-  </si>
-  <si>
-    <t>5.845</t>
-  </si>
-  <si>
-    <t>35.833</t>
-  </si>
-  <si>
-    <t>32,585+11,047</t>
+    <t>12,491</t>
+  </si>
+  <si>
+    <t>6,646</t>
+  </si>
+  <si>
+    <t>5,845</t>
+  </si>
+  <si>
+    <t>Saarbrückerweg  24 , 59439  Holzwickede,Wohnung,1.OG-re</t>
+  </si>
+  <si>
+    <t>43,632</t>
   </si>
   <si>
     <t>151,59</t>
@@ -559,31 +559,31 @@
     <t>OgRe Bad</t>
   </si>
   <si>
-    <t>129.823</t>
-  </si>
-  <si>
-    <t>97.238</t>
-  </si>
-  <si>
-    <t>32.585</t>
+    <t>129,823</t>
+  </si>
+  <si>
+    <t>97,238</t>
+  </si>
+  <si>
+    <t>32,585</t>
   </si>
   <si>
     <t>OgRe WaschKü</t>
   </si>
   <si>
-    <t>20.387</t>
-  </si>
-  <si>
-    <t>9.340</t>
-  </si>
-  <si>
-    <t>11.047</t>
-  </si>
-  <si>
-    <t>43.632</t>
-  </si>
-  <si>
-    <t>55,131+15,386</t>
+    <t>20,387</t>
+  </si>
+  <si>
+    <t>9,340</t>
+  </si>
+  <si>
+    <t>11,047</t>
+  </si>
+  <si>
+    <t>Saarbrückerweg  24 , 59439  Holzwickede,Wohnung,DG</t>
+  </si>
+  <si>
+    <t>70,517</t>
   </si>
   <si>
     <t>244,99</t>
@@ -616,28 +616,25 @@
     <t>Dg Bad</t>
   </si>
   <si>
-    <t>153.200</t>
-  </si>
-  <si>
-    <t>98.069</t>
-  </si>
-  <si>
-    <t>55.131</t>
+    <t>153,200</t>
+  </si>
+  <si>
+    <t>98,069</t>
+  </si>
+  <si>
+    <t>55,131</t>
   </si>
   <si>
     <t>Dg WaschKü</t>
   </si>
   <si>
-    <t>29.870</t>
-  </si>
-  <si>
-    <t>14.484</t>
-  </si>
-  <si>
-    <t>15.386</t>
-  </si>
-  <si>
-    <t>70.517</t>
+    <t>29,870</t>
+  </si>
+  <si>
+    <t>14,484</t>
+  </si>
+  <si>
+    <t>15,386</t>
   </si>
 </sst>
 </file>
@@ -645,13 +642,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -674,9 +676,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -987,11 +992,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.53125" customWidth="true"/>
-    <col min="2" max="2" width="19.53125" customWidth="true"/>
-    <col min="3" max="3" width="19.53125" customWidth="true"/>
-    <col min="4" max="4" width="19.53125" customWidth="true"/>
-    <col min="5" max="5" width="19.53125" customWidth="true"/>
-    <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="15.625" customWidth="true"/>
+    <col min="3" max="3" width="15.625" customWidth="true"/>
+    <col min="4" max="4" width="15.625" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+    <col min="6" max="6" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
@@ -1271,10 +1276,10 @@
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1351,16 +1356,16 @@
     </row>
     <row r="23" ht="21.0" customHeight="true">
       <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>130</v>
+      <c r="D23" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1377,11 +1382,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.53125" customWidth="true"/>
-    <col min="2" max="2" width="19.53125" customWidth="true"/>
-    <col min="3" max="3" width="19.53125" customWidth="true"/>
-    <col min="4" max="4" width="19.53125" customWidth="true"/>
-    <col min="5" max="5" width="19.53125" customWidth="true"/>
-    <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="15.625" customWidth="true"/>
+    <col min="3" max="3" width="15.625" customWidth="true"/>
+    <col min="4" max="4" width="15.625" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+    <col min="6" max="6" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
@@ -1397,7 +1402,7 @@
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
@@ -1661,10 +1666,10 @@
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1713,16 +1718,16 @@
     </row>
     <row r="21" ht="21.0" customHeight="true">
       <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>153</v>
+      <c r="D21" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1739,11 +1744,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.53125" customWidth="true"/>
-    <col min="2" max="2" width="19.53125" customWidth="true"/>
-    <col min="3" max="3" width="19.53125" customWidth="true"/>
-    <col min="4" max="4" width="19.53125" customWidth="true"/>
-    <col min="5" max="5" width="19.53125" customWidth="true"/>
-    <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="15.625" customWidth="true"/>
+    <col min="3" max="3" width="15.625" customWidth="true"/>
+    <col min="4" max="4" width="15.625" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+    <col min="6" max="6" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
@@ -1759,7 +1764,7 @@
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
@@ -2023,10 +2028,10 @@
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2075,16 +2080,16 @@
     </row>
     <row r="21" ht="21.0" customHeight="true">
       <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>168</v>
+      <c r="D21" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2101,11 +2106,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.53125" customWidth="true"/>
-    <col min="2" max="2" width="19.53125" customWidth="true"/>
-    <col min="3" max="3" width="19.53125" customWidth="true"/>
-    <col min="4" max="4" width="19.53125" customWidth="true"/>
-    <col min="5" max="5" width="19.53125" customWidth="true"/>
-    <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="15.625" customWidth="true"/>
+    <col min="3" max="3" width="15.625" customWidth="true"/>
+    <col min="4" max="4" width="15.625" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+    <col min="6" max="6" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
@@ -2121,7 +2126,7 @@
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
@@ -2385,10 +2390,10 @@
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2437,16 +2442,16 @@
     </row>
     <row r="21" ht="21.0" customHeight="true">
       <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>187</v>
+      <c r="D21" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2463,11 +2468,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.53125" customWidth="true"/>
-    <col min="2" max="2" width="19.53125" customWidth="true"/>
-    <col min="3" max="3" width="19.53125" customWidth="true"/>
-    <col min="4" max="4" width="19.53125" customWidth="true"/>
-    <col min="5" max="5" width="19.53125" customWidth="true"/>
-    <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="15.625" customWidth="true"/>
+    <col min="3" max="3" width="15.625" customWidth="true"/>
+    <col min="4" max="4" width="15.625" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+    <col min="6" max="6" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
@@ -2483,7 +2488,7 @@
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
@@ -2747,10 +2752,10 @@
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2799,16 +2804,16 @@
     </row>
     <row r="21" ht="21.0" customHeight="true">
       <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>206</v>
+      <c r="D21" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -653,7 +653,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <i val="true"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -676,10 +676,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right"/>
@@ -991,7 +994,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="1" max="1" width="21.484375" customWidth="true"/>
     <col min="2" max="2" width="15.625" customWidth="true"/>
     <col min="3" max="3" width="15.625" customWidth="true"/>
     <col min="4" max="4" width="15.625" customWidth="true"/>
@@ -1000,7 +1003,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1276,10 +1279,10 @@
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1361,10 +1364,10 @@
       <c r="B23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1381,7 +1384,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="1" max="1" width="21.484375" customWidth="true"/>
     <col min="2" max="2" width="15.625" customWidth="true"/>
     <col min="3" max="3" width="15.625" customWidth="true"/>
     <col min="4" max="4" width="15.625" customWidth="true"/>
@@ -1390,7 +1393,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1666,10 +1669,10 @@
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1723,10 +1726,10 @@
       <c r="B21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1743,7 +1746,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="1" max="1" width="21.484375" customWidth="true"/>
     <col min="2" max="2" width="15.625" customWidth="true"/>
     <col min="3" max="3" width="15.625" customWidth="true"/>
     <col min="4" max="4" width="15.625" customWidth="true"/>
@@ -1752,7 +1755,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2028,10 +2031,10 @@
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2085,10 +2088,10 @@
       <c r="B21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2105,7 +2108,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="1" max="1" width="21.484375" customWidth="true"/>
     <col min="2" max="2" width="15.625" customWidth="true"/>
     <col min="3" max="3" width="15.625" customWidth="true"/>
     <col min="4" max="4" width="15.625" customWidth="true"/>
@@ -2114,7 +2117,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2390,10 +2393,10 @@
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2447,10 +2450,10 @@
       <c r="B21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2467,7 +2470,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="1" max="1" width="21.484375" customWidth="true"/>
     <col min="2" max="2" width="15.625" customWidth="true"/>
     <col min="3" max="3" width="15.625" customWidth="true"/>
     <col min="4" max="4" width="15.625" customWidth="true"/>
@@ -2476,7 +2479,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2752,10 +2755,10 @@
       <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2809,10 +2812,10 @@
       <c r="B21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>188</v>
       </c>
     </row>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -64,7 +64,7 @@
     <t>mitKonto</t>
   </si>
   <si>
-    <t>03.07.15</t>
+    <t>04.07.15</t>
   </si>
   <si>
     <t>Familie</t>
@@ -995,18 +995,18 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.484375" customWidth="true"/>
-    <col min="2" max="2" width="15.625" customWidth="true"/>
-    <col min="3" max="3" width="15.625" customWidth="true"/>
-    <col min="4" max="4" width="15.625" customWidth="true"/>
-    <col min="5" max="5" width="15.625" customWidth="true"/>
-    <col min="6" max="6" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="13.671875" customWidth="true"/>
+    <col min="3" max="3" width="13.671875" customWidth="true"/>
+    <col min="4" max="4" width="13.671875" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="13.671875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1022,7 +1022,7 @@
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1050,7 +1050,7 @@
       <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1070,7 +1070,7 @@
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1090,7 +1090,7 @@
       <c r="A7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1110,7 +1110,7 @@
       <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1130,7 +1130,7 @@
       <c r="A9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1150,7 +1150,7 @@
       <c r="A10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1170,7 +1170,7 @@
       <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1190,7 +1190,7 @@
       <c r="A12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1210,7 +1210,7 @@
       <c r="A13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1230,7 +1230,7 @@
       <c r="A14" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1250,7 +1250,7 @@
       <c r="A15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1270,7 +1270,7 @@
       <c r="A16" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1291,7 +1291,7 @@
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1305,7 +1305,7 @@
       <c r="A19" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1319,7 +1319,7 @@
       <c r="A20" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1333,7 +1333,7 @@
       <c r="A21" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1347,7 +1347,7 @@
       <c r="A22" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1361,7 +1361,7 @@
       <c r="A23" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1373,6 +1373,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1385,18 +1386,18 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.484375" customWidth="true"/>
-    <col min="2" max="2" width="15.625" customWidth="true"/>
-    <col min="3" max="3" width="15.625" customWidth="true"/>
-    <col min="4" max="4" width="15.625" customWidth="true"/>
-    <col min="5" max="5" width="15.625" customWidth="true"/>
-    <col min="6" max="6" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="13.671875" customWidth="true"/>
+    <col min="3" max="3" width="13.671875" customWidth="true"/>
+    <col min="4" max="4" width="13.671875" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="13.671875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1412,7 +1413,7 @@
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1420,7 +1421,7 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1440,7 +1441,7 @@
       <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1460,7 +1461,7 @@
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1480,7 +1481,7 @@
       <c r="A7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1500,7 +1501,7 @@
       <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1520,7 +1521,7 @@
       <c r="A9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1540,7 +1541,7 @@
       <c r="A10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1560,7 +1561,7 @@
       <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1580,7 +1581,7 @@
       <c r="A12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1600,7 +1601,7 @@
       <c r="A13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1620,7 +1621,7 @@
       <c r="A14" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1640,7 +1641,7 @@
       <c r="A15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1660,7 +1661,7 @@
       <c r="A16" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1681,7 +1682,7 @@
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1695,7 +1696,7 @@
       <c r="A19" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1709,7 +1710,7 @@
       <c r="A20" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>150</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1723,7 +1724,7 @@
       <c r="A21" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1735,6 +1736,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1747,18 +1749,18 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.484375" customWidth="true"/>
-    <col min="2" max="2" width="15.625" customWidth="true"/>
-    <col min="3" max="3" width="15.625" customWidth="true"/>
-    <col min="4" max="4" width="15.625" customWidth="true"/>
-    <col min="5" max="5" width="15.625" customWidth="true"/>
-    <col min="6" max="6" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="13.671875" customWidth="true"/>
+    <col min="3" max="3" width="13.671875" customWidth="true"/>
+    <col min="4" max="4" width="13.671875" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="13.671875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1774,7 +1776,7 @@
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1782,7 +1784,7 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1802,7 +1804,7 @@
       <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1822,7 +1824,7 @@
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1842,7 +1844,7 @@
       <c r="A7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1862,7 +1864,7 @@
       <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1882,7 +1884,7 @@
       <c r="A9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1902,7 +1904,7 @@
       <c r="A10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1922,7 +1924,7 @@
       <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1942,7 +1944,7 @@
       <c r="A12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1962,7 +1964,7 @@
       <c r="A13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1982,7 +1984,7 @@
       <c r="A14" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2002,7 +2004,7 @@
       <c r="A15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2022,7 +2024,7 @@
       <c r="A16" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2043,7 +2045,7 @@
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2057,7 +2059,7 @@
       <c r="A19" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>161</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2071,7 +2073,7 @@
       <c r="A20" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>165</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2085,7 +2087,7 @@
       <c r="A21" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -2097,6 +2099,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -2109,18 +2112,18 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.484375" customWidth="true"/>
-    <col min="2" max="2" width="15.625" customWidth="true"/>
-    <col min="3" max="3" width="15.625" customWidth="true"/>
-    <col min="4" max="4" width="15.625" customWidth="true"/>
-    <col min="5" max="5" width="15.625" customWidth="true"/>
-    <col min="6" max="6" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="13.671875" customWidth="true"/>
+    <col min="3" max="3" width="13.671875" customWidth="true"/>
+    <col min="4" max="4" width="13.671875" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="13.671875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2136,7 +2139,7 @@
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2144,7 +2147,7 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2164,7 +2167,7 @@
       <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2184,7 +2187,7 @@
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2204,7 +2207,7 @@
       <c r="A7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2224,7 +2227,7 @@
       <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2244,7 +2247,7 @@
       <c r="A9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2264,7 +2267,7 @@
       <c r="A10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2284,7 +2287,7 @@
       <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2304,7 +2307,7 @@
       <c r="A12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2324,7 +2327,7 @@
       <c r="A13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2344,7 +2347,7 @@
       <c r="A14" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2364,7 +2367,7 @@
       <c r="A15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2384,7 +2387,7 @@
       <c r="A16" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2405,7 +2408,7 @@
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2419,7 +2422,7 @@
       <c r="A19" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2433,7 +2436,7 @@
       <c r="A20" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2447,7 +2450,7 @@
       <c r="A21" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -2459,6 +2462,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -2471,18 +2475,18 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.484375" customWidth="true"/>
-    <col min="2" max="2" width="15.625" customWidth="true"/>
-    <col min="3" max="3" width="15.625" customWidth="true"/>
-    <col min="4" max="4" width="15.625" customWidth="true"/>
-    <col min="5" max="5" width="15.625" customWidth="true"/>
-    <col min="6" max="6" width="15.625" customWidth="true"/>
+    <col min="2" max="2" width="13.671875" customWidth="true"/>
+    <col min="3" max="3" width="13.671875" customWidth="true"/>
+    <col min="4" max="4" width="13.671875" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="13.671875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2498,7 +2502,7 @@
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2506,7 +2510,7 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2526,7 +2530,7 @@
       <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2546,7 +2550,7 @@
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2566,7 +2570,7 @@
       <c r="A7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2586,7 +2590,7 @@
       <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2606,7 +2610,7 @@
       <c r="A9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2626,7 +2630,7 @@
       <c r="A10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2646,7 +2650,7 @@
       <c r="A11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2666,7 +2670,7 @@
       <c r="A12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2686,7 +2690,7 @@
       <c r="A13" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2706,7 +2710,7 @@
       <c r="A14" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2726,7 +2730,7 @@
       <c r="A15" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2746,7 +2750,7 @@
       <c r="A16" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2767,7 +2771,7 @@
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2781,7 +2785,7 @@
       <c r="A19" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>199</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2795,7 +2799,7 @@
       <c r="A20" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>203</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2809,7 +2813,7 @@
       <c r="A21" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -2821,5 +2825,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -64,7 +64,7 @@
     <t>mitKonto</t>
   </si>
   <si>
-    <t>04.07.15</t>
+    <t>07.07.15</t>
   </si>
   <si>
     <t>Familie</t>
@@ -364,7 +364,7 @@
     <t>= Verbrauch</t>
   </si>
   <si>
-    <t>EgRe Bad oben</t>
+    <t>EG Re Bad oben</t>
   </si>
   <si>
     <t>142,614</t>
@@ -376,7 +376,7 @@
     <t>65,803</t>
   </si>
   <si>
-    <t>EgRe Bad unten</t>
+    <t>EG Re Bad unten</t>
   </si>
   <si>
     <t>112,384</t>
@@ -388,7 +388,7 @@
     <t>26,640</t>
   </si>
   <si>
-    <t>EgRe WaschKü.1</t>
+    <t>EG Re WaschKü.1</t>
   </si>
   <si>
     <t>24,500</t>
@@ -400,7 +400,7 @@
     <t>1,300</t>
   </si>
   <si>
-    <t>EgRe WaschKü.2</t>
+    <t>EG Re WaschKü.2</t>
   </si>
   <si>
     <t>10,780</t>
@@ -454,7 +454,7 @@
     <t>1.250,29</t>
   </si>
   <si>
-    <t>EgLi Bad</t>
+    <t>EG Li Bad</t>
   </si>
   <si>
     <t>366,858</t>
@@ -466,7 +466,7 @@
     <t>49,672</t>
   </si>
   <si>
-    <t>EgLi WaschKü</t>
+    <t>EG Li WaschKü</t>
   </si>
   <si>
     <t>29,161</t>
@@ -499,7 +499,7 @@
     <t>999,77</t>
   </si>
   <si>
-    <t>OgLi Bad</t>
+    <t>OG Li Bad</t>
   </si>
   <si>
     <t>155,193</t>
@@ -511,7 +511,7 @@
     <t>29,988</t>
   </si>
   <si>
-    <t>OgLi WaschKü</t>
+    <t>OG Li WaschKü</t>
   </si>
   <si>
     <t>12,491</t>
@@ -556,7 +556,7 @@
     <t>1.029,76</t>
   </si>
   <si>
-    <t>OgRe Bad</t>
+    <t>OG Re Bad</t>
   </si>
   <si>
     <t>129,823</t>
@@ -568,7 +568,7 @@
     <t>32,585</t>
   </si>
   <si>
-    <t>OgRe WaschKü</t>
+    <t>OG Re WaschKü</t>
   </si>
   <si>
     <t>20,387</t>
@@ -613,7 +613,7 @@
     <t>1.573,19</t>
   </si>
   <si>
-    <t>Dg Bad</t>
+    <t>DG Bad</t>
   </si>
   <si>
     <t>153,200</t>
@@ -625,7 +625,7 @@
     <t>55,131</t>
   </si>
   <si>
-    <t>Dg WaschKü</t>
+    <t>DG WaschKü</t>
   </si>
   <si>
     <t>29,870</t>
@@ -652,7 +652,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <sz val="8.0"/>
       <b val="true"/>
     </font>
   </fonts>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -64,7 +64,7 @@
     <t>mitKonto</t>
   </si>
   <si>
-    <t>07.07.15</t>
+    <t>08.07.15</t>
   </si>
   <si>
     <t>Familie</t>
@@ -319,7 +319,7 @@
     <t>Mietwasseruhr</t>
   </si>
   <si>
-    <t xml:space="preserve">stck </t>
+    <t xml:space="preserve">Stück </t>
   </si>
   <si>
     <t>189,20</t>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="204">
   <si>
     <t>briefDatum</t>
   </si>
@@ -64,7 +64,7 @@
     <t>mitKonto</t>
   </si>
   <si>
-    <t>08.07.15</t>
+    <t>15.08.15</t>
   </si>
   <si>
     <t>Familie</t>
@@ -130,7 +130,7 @@
     <t>Hessel</t>
   </si>
   <si>
-    <t>-99,77</t>
+    <t>-399,77</t>
   </si>
   <si>
     <t>2203298601</t>
@@ -256,7 +256,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>13</t>
+    <t>10</t>
   </si>
   <si>
     <t>317,86</t>
@@ -319,16 +319,13 @@
     <t>Mietwasseruhr</t>
   </si>
   <si>
-    <t xml:space="preserve">Stück </t>
+    <t xml:space="preserve">stck </t>
   </si>
   <si>
     <t>189,20</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t/>
   </si>
   <si>
     <t>51,60</t>
@@ -341,9 +338,6 @@
   </si>
   <si>
     <t>247,68</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Summe</t>
@@ -1240,21 +1234,21 @@
         <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>63</v>
@@ -1263,109 +1257,109 @@
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="true"/>
     <row r="18" ht="21.0" customHeight="true">
       <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="true">
       <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="true">
       <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="true">
       <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="true">
       <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="true">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>63</v>
@@ -1406,7 +1400,7 @@
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
@@ -1448,13 +1442,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -1468,13 +1462,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -1488,13 +1482,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -1508,13 +1502,13 @@
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -1528,13 +1522,13 @@
         <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -1548,13 +1542,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -1568,13 +1562,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -1588,13 +1582,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -1628,110 +1622,110 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="true"/>
     <row r="18" ht="21.0" customHeight="true">
       <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="true">
       <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="true">
       <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="true">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +1763,7 @@
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
@@ -1811,13 +1805,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -1831,13 +1825,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -1851,13 +1845,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -1877,7 +1871,7 @@
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -1897,7 +1891,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -1911,13 +1905,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -1931,13 +1925,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -1951,13 +1945,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -1991,110 +1985,110 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="true"/>
     <row r="18" ht="21.0" customHeight="true">
       <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="true">
       <c r="A19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="true">
       <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="true">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2126,7 @@
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
@@ -2174,13 +2168,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -2194,13 +2188,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -2214,13 +2208,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -2240,7 +2234,7 @@
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -2260,7 +2254,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -2274,13 +2268,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -2294,13 +2288,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -2314,13 +2308,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -2354,110 +2348,110 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="true"/>
     <row r="18" ht="21.0" customHeight="true">
       <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="true">
       <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="true">
       <c r="A20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="true">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2489,7 @@
     </row>
     <row r="2" ht="21.0" customHeight="true">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="true">
@@ -2537,13 +2531,13 @@
         <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
@@ -2557,13 +2551,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
@@ -2577,13 +2571,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
@@ -2597,13 +2591,13 @@
         <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
@@ -2617,13 +2611,13 @@
         <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
@@ -2637,13 +2631,13 @@
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
@@ -2657,13 +2651,13 @@
         <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
@@ -2677,13 +2671,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
@@ -2717,110 +2711,110 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="true">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="true"/>
     <row r="18" ht="21.0" customHeight="true">
       <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="true">
       <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="true">
       <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="true">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -64,7 +64,7 @@
     <t>mitKonto</t>
   </si>
   <si>
-    <t>15.08.15</t>
+    <t>13.10.15</t>
   </si>
   <si>
     <t>Familie</t>
@@ -130,7 +130,7 @@
     <t>Hessel</t>
   </si>
   <si>
-    <t>-399,77</t>
+    <t>-99,77</t>
   </si>
   <si>
     <t>2203298601</t>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Diener" r:id="rId3" sheetId="1"/>
+    <sheet name="Brzoza" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -23,13 +23,13 @@
     <t>Monat:01-12</t>
   </si>
   <si>
-    <t>Haferkamp  1 , 59192  Bergkamen,Doppelhaushälfte,li,EG,DG</t>
+    <t>Haferkamp  3 , 59192  Bergkamen,Doppelhaushälfte,re,EG,DG</t>
   </si>
   <si>
     <t>Mieter:</t>
   </si>
   <si>
-    <t>Diener</t>
+    <t>Brzoza</t>
   </si>
   <si>
     <t>Kostenart</t>
@@ -50,22 +50,22 @@
     <t>€</t>
   </si>
   <si>
-    <t>Entwässerung</t>
+    <t>Entwässerung Fläche</t>
   </si>
   <si>
     <t xml:space="preserve">Haushalt </t>
   </si>
   <si>
-    <t>608,82</t>
+    <t>168,96</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Entwässerung Fläche</t>
-  </si>
-  <si>
-    <t>168,96</t>
+    <t>Entwässerung Verbrauch</t>
+  </si>
+  <si>
+    <t>784,02</t>
   </si>
   <si>
     <t>Grundsteuer</t>
@@ -77,7 +77,7 @@
     <t>Müllabfuhr</t>
   </si>
   <si>
-    <t>236,40</t>
+    <t>118,20</t>
   </si>
   <si>
     <t>Müllabfuhr Bio</t>
@@ -101,7 +101,7 @@
     <t>Heizungswartung</t>
   </si>
   <si>
-    <t>122,68</t>
+    <t>121,46</t>
   </si>
   <si>
     <t>Rauchmelder</t>
@@ -116,7 +116,7 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>1.863,69</t>
+    <t>1.919,47</t>
   </si>
 </sst>
 </file>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Brzoza" r:id="rId3" sheetId="1"/>
+    <sheet name="Partu" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -23,13 +23,13 @@
     <t>Monat:01-12</t>
   </si>
   <si>
-    <t>Haferkamp  3 , 59192  Bergkamen,Doppelhaushälfte,re,EG,DG</t>
+    <t>Heinrichstraße  46 , 59077  Hamm,Reihenmittelhaus,</t>
   </si>
   <si>
     <t>Mieter:</t>
   </si>
   <si>
-    <t>Brzoza</t>
+    <t>Partu</t>
   </si>
   <si>
     <t>Kostenart</t>
@@ -50,64 +50,64 @@
     <t>€</t>
   </si>
   <si>
-    <t>Entwässerung Fläche</t>
+    <t>Entwässerung</t>
   </si>
   <si>
     <t xml:space="preserve">Haushalt </t>
   </si>
   <si>
-    <t>168,96</t>
+    <t>84,00</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Entwässerung Verbrauch</t>
-  </si>
-  <si>
-    <t>784,02</t>
-  </si>
-  <si>
     <t>Grundsteuer</t>
   </si>
   <si>
-    <t>318,85</t>
+    <t>301,50</t>
   </si>
   <si>
     <t>Müllabfuhr</t>
   </si>
   <si>
-    <t>118,20</t>
-  </si>
-  <si>
-    <t>Müllabfuhr Bio</t>
-  </si>
-  <si>
-    <t>53,70</t>
+    <t>147,62</t>
   </si>
   <si>
     <t>Gebäudeversicherung</t>
   </si>
   <si>
-    <t>280,00</t>
+    <t>231,95</t>
   </si>
   <si>
     <t>Haftpflichtversicherung</t>
   </si>
   <si>
-    <t>43,91</t>
+    <t>46,10</t>
   </si>
   <si>
     <t>Heizungswartung</t>
   </si>
   <si>
-    <t>121,46</t>
+    <t>163,60</t>
+  </si>
+  <si>
+    <t>Kabelfernsehen</t>
+  </si>
+  <si>
+    <t>146,28</t>
   </si>
   <si>
     <t>Rauchmelder</t>
   </si>
   <si>
-    <t>30,37</t>
+    <t>111,45</t>
+  </si>
+  <si>
+    <t>Schornsteinfeger</t>
+  </si>
+  <si>
+    <t>64,55</t>
   </si>
   <si>
     <t/>
@@ -116,7 +116,7 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>1.919,47</t>
+    <t>1.297,05</t>
   </si>
 </sst>
 </file>

--- a/Immos/nebenkostenabrechung.xlsx
+++ b/Immos/nebenkostenabrechung.xlsx
@@ -6,30 +6,35 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Partu" r:id="rId3" sheetId="1"/>
+    <sheet name="Heyer,Silke" r:id="rId3" sheetId="1"/>
+    <sheet name="Grofe,Renate" r:id="rId4" sheetId="2"/>
+    <sheet name="Sezgin,Semra" r:id="rId5" sheetId="3"/>
+    <sheet name="Schier,Stefanie" r:id="rId6" sheetId="4"/>
+    <sheet name="Balbierz" r:id="rId7" sheetId="5"/>
+    <sheet name="Hanke" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="111">
   <si>
     <t xml:space="preserve">Nebenkostenabrechnung </t>
   </si>
   <si>
-    <t>2015</t>
+    <t>2018</t>
   </si>
   <si>
     <t>Monat:01-12</t>
   </si>
   <si>
-    <t>Heinrichstraße  46 , 59077  Hamm,Reihenmittelhaus,</t>
+    <t>Lorenzstrasse  5 , 44536  Lünen,Wohnung,EG-li</t>
   </si>
   <si>
     <t>Mieter:</t>
   </si>
   <si>
-    <t>Partu</t>
+    <t>Heyer</t>
   </si>
   <si>
     <t>Kostenart</t>
@@ -50,64 +55,112 @@
     <t>€</t>
   </si>
   <si>
-    <t>Entwässerung</t>
+    <t>Entwässerung Fläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qm </t>
+  </si>
+  <si>
+    <t>370,92</t>
+  </si>
+  <si>
+    <t>73,96</t>
+  </si>
+  <si>
+    <t>441,31</t>
+  </si>
+  <si>
+    <t>62,16</t>
+  </si>
+  <si>
+    <t>Grundsteuer</t>
+  </si>
+  <si>
+    <t>1.274,37</t>
+  </si>
+  <si>
+    <t>213,57</t>
+  </si>
+  <si>
+    <t>Müllabfuhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personen </t>
+  </si>
+  <si>
+    <t>890,51</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>178,10</t>
+  </si>
+  <si>
+    <t>Gebäudeversicherung</t>
+  </si>
+  <si>
+    <t>1.155,18</t>
+  </si>
+  <si>
+    <t>193,60</t>
+  </si>
+  <si>
+    <t>Haftpflichtversicherung</t>
+  </si>
+  <si>
+    <t>140,28</t>
+  </si>
+  <si>
+    <t>23,51</t>
+  </si>
+  <si>
+    <t>Hauswart</t>
+  </si>
+  <si>
+    <t>1.592,37</t>
+  </si>
+  <si>
+    <t>266,87</t>
+  </si>
+  <si>
+    <t>Kabelfernsehen</t>
   </si>
   <si>
     <t xml:space="preserve">Haushalt </t>
   </si>
   <si>
-    <t>84,00</t>
+    <t>1.240,56</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Grundsteuer</t>
-  </si>
-  <si>
-    <t>301,50</t>
-  </si>
-  <si>
-    <t>Müllabfuhr</t>
-  </si>
-  <si>
-    <t>147,62</t>
-  </si>
-  <si>
-    <t>Gebäudeversicherung</t>
-  </si>
-  <si>
-    <t>231,95</t>
-  </si>
-  <si>
-    <t>Haftpflichtversicherung</t>
-  </si>
-  <si>
-    <t>46,10</t>
-  </si>
-  <si>
-    <t>Heizungswartung</t>
-  </si>
-  <si>
-    <t>163,60</t>
-  </si>
-  <si>
-    <t>Kabelfernsehen</t>
-  </si>
-  <si>
-    <t>146,28</t>
-  </si>
-  <si>
-    <t>Rauchmelder</t>
-  </si>
-  <si>
-    <t>111,45</t>
-  </si>
-  <si>
-    <t>Schornsteinfeger</t>
-  </si>
-  <si>
-    <t>64,55</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>206,76</t>
+  </si>
+  <si>
+    <t>Strom allgemein</t>
+  </si>
+  <si>
+    <t>93,58</t>
+  </si>
+  <si>
+    <t>15,68</t>
+  </si>
+  <si>
+    <t>Trinkwasseruntersuchung</t>
+  </si>
+  <si>
+    <t>417,10</t>
+  </si>
+  <si>
+    <t>69,90</t>
   </si>
   <si>
     <t/>
@@ -116,7 +169,187 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>1.297,05</t>
+    <t>1.230,15</t>
+  </si>
+  <si>
+    <t>Lorenzstrasse  5 , 44536  Lünen,Wohnung,EG-re</t>
+  </si>
+  <si>
+    <t>Grofe</t>
+  </si>
+  <si>
+    <t>60,48</t>
+  </si>
+  <si>
+    <t>50,83</t>
+  </si>
+  <si>
+    <t>174,65</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>118,73</t>
+  </si>
+  <si>
+    <t>158,31</t>
+  </si>
+  <si>
+    <t>19,22</t>
+  </si>
+  <si>
+    <t>218,23</t>
+  </si>
+  <si>
+    <t>12,82</t>
+  </si>
+  <si>
+    <t>57,16</t>
+  </si>
+  <si>
+    <t>1.016,71</t>
+  </si>
+  <si>
+    <t>Lorenzstrasse  5 , 44536  Lünen,Wohnung,1.OG-li</t>
+  </si>
+  <si>
+    <t>Sezgin</t>
+  </si>
+  <si>
+    <t>75,91</t>
+  </si>
+  <si>
+    <t>63,80</t>
+  </si>
+  <si>
+    <t>219,21</t>
+  </si>
+  <si>
+    <t>198,70</t>
+  </si>
+  <si>
+    <t>24,13</t>
+  </si>
+  <si>
+    <t>273,90</t>
+  </si>
+  <si>
+    <t>16,10</t>
+  </si>
+  <si>
+    <t>71,75</t>
+  </si>
+  <si>
+    <t>1.193,08</t>
+  </si>
+  <si>
+    <t>Lorenzstrasse  5 , 44536  Lünen,Wohnung,1.OG-re</t>
+  </si>
+  <si>
+    <t>Schier</t>
+  </si>
+  <si>
+    <t>61,98</t>
+  </si>
+  <si>
+    <t>52,09</t>
+  </si>
+  <si>
+    <t>178,98</t>
+  </si>
+  <si>
+    <t>59,37</t>
+  </si>
+  <si>
+    <t>162,24</t>
+  </si>
+  <si>
+    <t>19,70</t>
+  </si>
+  <si>
+    <t>223,64</t>
+  </si>
+  <si>
+    <t>13,14</t>
+  </si>
+  <si>
+    <t>58,58</t>
+  </si>
+  <si>
+    <t>974,50</t>
+  </si>
+  <si>
+    <t>Lorenzstrasse  5 , 44536  Lünen,Wohnung,DG-li</t>
+  </si>
+  <si>
+    <t>Balbierz</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>77,33</t>
+  </si>
+  <si>
+    <t>265,67</t>
+  </si>
+  <si>
+    <t>240,82</t>
+  </si>
+  <si>
+    <t>29,24</t>
+  </si>
+  <si>
+    <t>331,96</t>
+  </si>
+  <si>
+    <t>19,51</t>
+  </si>
+  <si>
+    <t>86,95</t>
+  </si>
+  <si>
+    <t>1.436,34</t>
+  </si>
+  <si>
+    <t>Lorenzstrasse  5 , 44536  Lünen,Wohnung,DG-re</t>
+  </si>
+  <si>
+    <t>Hanke</t>
+  </si>
+  <si>
+    <t>76,98</t>
+  </si>
+  <si>
+    <t>64,70</t>
+  </si>
+  <si>
+    <t>222,29</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>237,47</t>
+  </si>
+  <si>
+    <t>201,50</t>
+  </si>
+  <si>
+    <t>24,47</t>
+  </si>
+  <si>
+    <t>277,77</t>
+  </si>
+  <si>
+    <t>16,32</t>
+  </si>
+  <si>
+    <t>72,76</t>
+  </si>
+  <si>
+    <t>1.324,04</t>
   </si>
 </sst>
 </file>
@@ -247,190 +480,1525 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="true">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="true">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="true">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="true">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="true">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="true">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="true">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="true">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="true"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="21.484375" customWidth="true"/>
+    <col min="2" max="2" width="13.671875" customWidth="true"/>
+    <col min="3" max="3" width="13.671875" customWidth="true"/>
+    <col min="4" max="4" width="13.671875" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="13.671875" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="true">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="true">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="true">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="true">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="true">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="true">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="true">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="true">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="true">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="true">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="true">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="true">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="true">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="true"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="21.484375" customWidth="true"/>
+    <col min="2" max="2" width="13.671875" customWidth="true"/>
+    <col min="3" max="3" width="13.671875" customWidth="true"/>
+    <col min="4" max="4" width="13.671875" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="13.671875" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="true">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="true">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="true">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="true">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="true">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="true">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="true">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="true">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="true">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="true">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="true">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="true">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="true">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="true"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="21.484375" customWidth="true"/>
+    <col min="2" max="2" width="13.671875" customWidth="true"/>
+    <col min="3" max="3" width="13.671875" customWidth="true"/>
+    <col min="4" max="4" width="13.671875" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="13.671875" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="true">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="true">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="true">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="true">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="true">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="true">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="true">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="true">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="true">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="true">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="true">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="true">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="true">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="true"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="21.484375" customWidth="true"/>
+    <col min="2" max="2" width="13.671875" customWidth="true"/>
+    <col min="3" max="3" width="13.671875" customWidth="true"/>
+    <col min="4" max="4" width="13.671875" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="13.671875" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="true">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="true">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="true">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="true">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="true">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="true">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="true">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="true">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="true">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="true">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="true">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="true">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="true">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="true"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="21.484375" customWidth="true"/>
+    <col min="2" max="2" width="13.671875" customWidth="true"/>
+    <col min="3" max="3" width="13.671875" customWidth="true"/>
+    <col min="4" max="4" width="13.671875" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="13.671875" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="true">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="true">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="true">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="true">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="true">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="true">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="true">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="true">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="true">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="true">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="true">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="true">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="true">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="true"/>
